--- a/function_dev.xlsx
+++ b/function_dev.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/255d809a46a0aae7/Development/metis_dev2/selectRetrieve5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/255d809a46a0aae7/Development/metis_dev2/selectRetrieve6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{44DEFFC9-0FF5-E94F-8965-A6D9BA4CD4B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79C4FA7B-B1C2-C74B-A030-4EF7162A15D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{F765F8B6-534A-0E47-8E83-62A00B7E4B9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33980" yWindow="15080" windowWidth="28040" windowHeight="17440" xr2:uid="{5CFC67DF-1A81-144A-9D06-A11F66AA9DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7083,9 +7083,6 @@
     <t>nrc_score_trust</t>
   </si>
   <si>
-    <t>nrdc_score_negative</t>
-  </si>
-  <si>
     <t>nrc_score_positive</t>
   </si>
   <si>
@@ -7102,6 +7099,9 @@
   </si>
   <si>
     <t>loughran_frame_constraining</t>
+  </si>
+  <si>
+    <t>nrc_score_negative</t>
   </si>
 </sst>
 </file>
@@ -7488,7 +7488,7 @@
   <dimension ref="A1:AQ714"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7633,28 +7633,28 @@
         <v>2348</v>
       </c>
       <c r="AJ1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="AK1" t="s">
         <v>2349</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>2350</v>
       </c>
       <c r="AL1" t="s">
         <v>2316</v>
       </c>
       <c r="AM1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="AN1" t="s">
         <v>2351</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>2352</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>2353</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>2354</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
